--- a/quiz-questions.xlsx
+++ b/quiz-questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\enneagram-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF773A95-2FFB-45E2-AD6F-4F2BE4ECE2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BD012D-E2F7-4D9C-9B2A-361E8E600BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,18 +114,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -378,7 +381,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -423,7 +426,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -435,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -447,7 +450,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2"/>
       <c r="I5" s="2"/>
@@ -460,7 +463,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -472,7 +475,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -484,7 +487,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -496,7 +499,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2"/>
     </row>

--- a/quiz-questions.xlsx
+++ b/quiz-questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\enneagram-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BD012D-E2F7-4D9C-9B2A-361E8E600BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFA2822-0544-4682-BBB9-EB55C6FF0152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Question</t>
   </si>
@@ -44,27 +44,15 @@
     <t>Type</t>
   </si>
   <si>
-    <t>"I am deeply motivated by the need to be good and avoid mistakes."</t>
-  </si>
-  <si>
     <t>Targets Type 1's core motivation for integrity and fear of being corrupt or wrong. This question helps highlight the inner critic and the striving for moral high ground.</t>
   </si>
   <si>
-    <t>"I feel a strong desire to be needed and valued by those around me."</t>
-  </si>
-  <si>
     <t>Addresses Type 2’s motivation to feel indispensable and appreciated.</t>
   </si>
   <si>
-    <t>"I strive to be successful and avoid failure at all costs."</t>
-  </si>
-  <si>
     <t>Highlights Type 3's drive for achievement and fear of being seen as unworthy. It touches on the pressure they feel to excel and prove their value.</t>
   </si>
   <si>
-    <t>"I value expressing my individuality and being true to myself."</t>
-  </si>
-  <si>
     <t>Addresses Type 4’s desire to stand out and their resistance to being perceived as ordinary.</t>
   </si>
   <si>
@@ -86,23 +74,281 @@
     <t>Addresses Type 7’s pursuit of joy and avoidance of pain or limitation. It reveals their tendency toward optimism and variety-seeking.</t>
   </si>
   <si>
-    <t>"I dislike feeling vulnerable or dependent on others."</t>
-  </si>
-  <si>
     <t>Highlights Type 8’s resistance to showing weakness and their emphasis on strength.</t>
   </si>
   <si>
-    <t>"I tend to merge with others’ priorities to avoid conflict or exerting myself too much."</t>
-  </si>
-  <si>
     <t>Captures Type 9’s tendency to avoid conflict and prioritize peace over personal expression. This points to their preference for harmony and aversion to confrontation.</t>
+  </si>
+  <si>
+    <t>"I find it difficult to relax when I see something that needs improvement or fixing."</t>
+  </si>
+  <si>
+    <t>"I feel strongly that fairness and justice should be upheld as a matter of principle."</t>
+  </si>
+  <si>
+    <t>Further captures Type 1's commitment to ethics and their discomfort with perceived injustices or unfairness.</t>
+  </si>
+  <si>
+    <t>"I often feel a moral obligation to meet higher standards than I expect from others."</t>
+  </si>
+  <si>
+    <t>Reflects Type 1’s perfectionism and internal self-criticism. This explores their inner drive for improvement.</t>
+  </si>
+  <si>
+    <t>"I feel unsettled when things don’t meet my standards of order and correctness."</t>
+  </si>
+  <si>
+    <t>Highlights Type 1's focus on structure and aversion to chaos.</t>
+  </si>
+  <si>
+    <t>"I believe that rules, structure, and doing what’s right are essential for creating a better world."</t>
+  </si>
+  <si>
+    <t>Addresses Type 1’s adherence to principles and their tendency to see the world in terms of right and wrong.</t>
+  </si>
+  <si>
+    <t>"I feel frustrated when things or people don’t live up to the standards I hold."</t>
+  </si>
+  <si>
+    <t>"I often neglect my own needs because I feel fulfilled when I’m making others feel loved and supported."</t>
+  </si>
+  <si>
+    <t>Explores Type 2’s core motivation to be loved and valued through helpfulness and connection. This emphasizes their tendency to derive self-worth from being indispensable.</t>
+  </si>
+  <si>
+    <t>"I feel happiest when I’m making someone else’s life easier or better, and it's appreciated."</t>
+  </si>
+  <si>
+    <t>Reflects Type 2’s joy in serving others and their need for connection and appreciation.</t>
+  </si>
+  <si>
+    <t>"I sometimes feel hurt if my efforts to help others are not acknowledged."</t>
+  </si>
+  <si>
+    <t>Captures Type 2’s vulnerability to feeling unappreciated and their need for validation.</t>
+  </si>
+  <si>
+    <t>"I often anticipate others’ needs before they even ask for help."</t>
+  </si>
+  <si>
+    <t>Highlights Type 2’s focus on intuitively understanding and meeting the needs of others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I instinctively notice when someone needs support and feel drawn to help them."
+</t>
+  </si>
+  <si>
+    <t>"I feel a strong emotional need to be needed and valued by the people I care about."</t>
+  </si>
+  <si>
+    <t>"I feel driven to succeed and fear being seen as a failure or incapable."</t>
+  </si>
+  <si>
+    <t>"I often adjust my personality or behavior to match the expectations of others."</t>
+  </si>
+  <si>
+    <t>Reflects Type 3’s adaptability and their focus on achieving recognition through alignment with others’ values.</t>
+  </si>
+  <si>
+    <t>"I naturally detect what others value and scan for opportunities to shine and advance."</t>
+  </si>
+  <si>
+    <t>Addresses Type 3’s drive to excel and their fear of being seen as average or unremarkable.</t>
+  </si>
+  <si>
+    <t>"I feel restless and unsatisfied if I’m not actively working toward something significant, or an ambitious goal."</t>
+  </si>
+  <si>
+    <t>Highlights Type 3’s focus on image and external validation.</t>
+  </si>
+  <si>
+    <t>"I measure my worth by how much I’m able to achieve."</t>
+  </si>
+  <si>
+    <t>Captures Type 3’s core motivation and their focus on results and accomplishment.</t>
+  </si>
+  <si>
+    <t>"I feel a strong sense of purpose when I’m being recognized for what I accomplish."</t>
+  </si>
+  <si>
+    <t>"I feel most alive when I’m expressing something that reflects my unique identity and emotional depth."</t>
+  </si>
+  <si>
+    <t>Probes Type 4’s introspection and longing to find a unique identity. This helps identify their depth of emotion and their search for significance.</t>
+  </si>
+  <si>
+    <t>"I sometimes feel like I don’t fully belong, as if there’s something missing or different about me."</t>
+  </si>
+  <si>
+    <t>Reflects Type 4’s tendency to feel different and their yearning for a place where they are truly understood.</t>
+  </si>
+  <si>
+    <t>"I find beauty and meaning in experiences that others might overlook as ordinary."</t>
+  </si>
+  <si>
+    <t>Highlights Type 4’s focus on emotional richness and their ability to see value in subtlety and creativity.</t>
+  </si>
+  <si>
+    <t>"I often feel a longing for something that is difficult to define."</t>
+  </si>
+  <si>
+    <t>Captures Type 4’s core emotional focus on yearning and searching for meaning.</t>
+  </si>
+  <si>
+    <t>"I dislike the idea of blending in with the crowd and look for ways to express my individuality."</t>
+  </si>
+  <si>
+    <t>"I’m drawn to exploring and understanding the deeper emotional truths behind my experiences."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I feel most at ease when I have the space to handle things on my own."
+</t>
+  </si>
+  <si>
+    <t>Highlights Type 5’s focus on autonomy and their discomfort with excessive reliance on external support.</t>
+  </si>
+  <si>
+    <t>"I feel more comfortable observing from the sidelines than being the center of attention."</t>
+  </si>
+  <si>
+    <t>Captures Type 5’s preference for detachment and their aversion to intense social engagement.</t>
+  </si>
+  <si>
+    <t>"I often feel drained when others make too many emotional or social demands on me."</t>
+  </si>
+  <si>
+    <t>Addresses Type 5’s need for boundaries and their tendency to conserve energy.</t>
+  </si>
+  <si>
+    <t>"I sometimes worry about running out of energy or resources, so I carefully manage what I give to others."</t>
+  </si>
+  <si>
+    <t>"I prefer relationships with clear boundaries so I can maintain my personal space and autonomy."</t>
+  </si>
+  <si>
+    <t>Reflects Type 5’s focus on maintaining control over their time and energy.</t>
+  </si>
+  <si>
+    <t>"I am sensitive to any signs that someone may be unreliable, disloyal or inconsistent."</t>
+  </si>
+  <si>
+    <t>Identifies Type 6’s desire for security and fear of instability or disconnection. It uncovers their preference for teamwork and loyalty.</t>
+  </si>
+  <si>
+    <t>"I often seek reassurance from others to help me feel more confident in my decisions."</t>
+  </si>
+  <si>
+    <t>Captures Type 6’s tendency toward self-doubt and their need for external validation.</t>
+  </si>
+  <si>
+    <t>"I often look for signs that people or systems are trustworthy before I fully commit."</t>
+  </si>
+  <si>
+    <t>Highlights Type 6’s focus on trust and their reliance on reliable alliances.</t>
+  </si>
+  <si>
+    <t>"I frequently worry about potential risks and plan for worst-case scenarios."</t>
+  </si>
+  <si>
+    <t>Reflects Type 6’s focus on security and their cautious approach to the unknown.</t>
+  </si>
+  <si>
+    <t>"I feel most at ease when I can rely on others to be consistent and dependable."</t>
+  </si>
+  <si>
+    <t>"I feel energized by imagining exciting new ideas and experiences that I can pursue in the future."</t>
+  </si>
+  <si>
+    <t>Reflects Type 7’s creative and forward-thinking nature.</t>
+  </si>
+  <si>
+    <t>"I always look for opportunities to make life more fun, enjoyable, and full of variety."</t>
+  </si>
+  <si>
+    <t>Highlights Type 7’s coping mechanisms for avoiding pain and discomfort.</t>
+  </si>
+  <si>
+    <t>"I feel trapped and restless when I’m stuck in a routine or restricted environment."</t>
+  </si>
+  <si>
+    <t>Captures Type 7’s enthusiasm for adventure and their resistance to being confined.</t>
+  </si>
+  <si>
+    <t>"I value flexibility and prefer to do things my way."</t>
+  </si>
+  <si>
+    <t>Addresses Type 7’s fear of being trapped and their need for freedom.</t>
+  </si>
+  <si>
+    <t>"I avoid dwelling on negative emotions and prefer to stay optimistic."</t>
+  </si>
+  <si>
+    <t>"I pride myself on being strong and independent, and I rarely let others see when I’m feeling vulnerable."</t>
+  </si>
+  <si>
+    <t>Highlights Type 8’s need for control and fear of being betrayed or harmed. This question identifies their protective instincts and assertiveness.</t>
+  </si>
+  <si>
+    <t>"I naturally detect weakness and strength in situations and people"</t>
+  </si>
+  <si>
+    <t>Reflects Type 8’s protective nature and their focus on justice.</t>
+  </si>
+  <si>
+    <t>"I often take charge in situations where I feel things are out of control, to protect myself and others."</t>
+  </si>
+  <si>
+    <t>Captures Type 8’s leadership tendencies and their need to assert authority.</t>
+  </si>
+  <si>
+    <t>"I dislike relying on others and prefer to be in control of my own decisions and resources."</t>
+  </si>
+  <si>
+    <t>"I am the first to confront people or situations I believe are unfair or unjust."</t>
+  </si>
+  <si>
+    <t>"I respect people who are strong and direct, even if we don’t always agree."</t>
+  </si>
+  <si>
+    <t>Addresses Type 8’s focus on autonomy and their aversion to being controlled.</t>
+  </si>
+  <si>
+    <t>"I tend to agree with others to avoid arguments, even if I feel differently."</t>
+  </si>
+  <si>
+    <t>"I feel most comfortable when everything around me is calm and harmonious."</t>
+  </si>
+  <si>
+    <t>Reflects Type 9’s focus on maintaining stability and their discomfort with conflict.</t>
+  </si>
+  <si>
+    <t>"I often lose track of my own needs because I prioritize keeping peace and avoiding conflict."</t>
+  </si>
+  <si>
+    <t>Highlights Type 9’s tendency to neglect self-interest in favor of external harmony.</t>
+  </si>
+  <si>
+    <t>"I sometimes go along with others’ preferences to avoid making waves or drawing attention to myself."</t>
+  </si>
+  <si>
+    <t>Addresses Type 9’s reluctance to engage in conflict and their preference for going along with the flow.</t>
+  </si>
+  <si>
+    <t>"I value maintaining stability and avoiding unnecessary disruptions"</t>
+  </si>
+  <si>
+    <t>Captures Type 9’s desire for unity and their aversion to discord.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I feel most at ease when everyone around me is getting along and there’s no tension."
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -126,21 +372,82 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF57BB8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81C181"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABC878"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5CF6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3D989"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7DCAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDFCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,17 +455,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,11 +731,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -390,7 +744,7 @@
     <col min="2" max="2" width="68.21875" hidden="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,114 +760,591 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
+    <row r="4" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
       </c>
       <c r="G5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C38" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C47" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="C50" s="13">
         <v>9</v>
       </c>
-      <c r="F10" s="2"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="13">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/quiz-questions.xlsx
+++ b/quiz-questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\enneagram-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFA2822-0544-4682-BBB9-EB55C6FF0152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9BFA52-1C36-418F-A55D-2FCB2374D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,24 +62,6 @@
     <t>Reflects Type 5’s need for understanding and fear of being helpless or incapable. This explores their analytical nature and self-reliance.</t>
   </si>
   <si>
-    <t>"I feel more confident when I have clear guidelines or authority to rely on."</t>
-  </si>
-  <si>
-    <t>Addresses Type 6’s desire for structure and their discomfort with ambiguity.</t>
-  </si>
-  <si>
-    <t>"I crave new experiences and feel stifled by routine."</t>
-  </si>
-  <si>
-    <t>Addresses Type 7’s pursuit of joy and avoidance of pain or limitation. It reveals their tendency toward optimism and variety-seeking.</t>
-  </si>
-  <si>
-    <t>Highlights Type 8’s resistance to showing weakness and their emphasis on strength.</t>
-  </si>
-  <si>
-    <t>Captures Type 9’s tendency to avoid conflict and prioritize peace over personal expression. This points to their preference for harmony and aversion to confrontation.</t>
-  </si>
-  <si>
     <t>"I find it difficult to relax when I see something that needs improvement or fixing."</t>
   </si>
   <si>
@@ -253,9 +235,21 @@
     <t>Reflects Type 6’s focus on security and their cautious approach to the unknown.</t>
   </si>
   <si>
+    <t>"I feel more confident when I have clear guidelines or authority to rely on."</t>
+  </si>
+  <si>
+    <t>Addresses Type 6’s desire for structure and their discomfort with ambiguity.</t>
+  </si>
+  <si>
     <t>"I feel most at ease when I can rely on others to be consistent and dependable."</t>
   </si>
   <si>
+    <t>"I crave new experiences and feel stifled by routine."</t>
+  </si>
+  <si>
+    <t>Addresses Type 7’s pursuit of joy and avoidance of pain or limitation. It reveals their tendency toward optimism and variety-seeking.</t>
+  </si>
+  <si>
     <t>"I feel energized by imagining exciting new ideas and experiences that I can pursue in the future."</t>
   </si>
   <si>
@@ -304,6 +298,9 @@
     <t>"I dislike relying on others and prefer to be in control of my own decisions and resources."</t>
   </si>
   <si>
+    <t>Highlights Type 8’s resistance to showing weakness and their emphasis on strength.</t>
+  </si>
+  <si>
     <t>"I am the first to confront people or situations I believe are unfair or unjust."</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>"I tend to agree with others to avoid arguments, even if I feel differently."</t>
+  </si>
+  <si>
+    <t>Captures Type 9’s tendency to avoid conflict and prioritize peace over personal expression. This points to their preference for harmony and aversion to confrontation.</t>
   </si>
   <si>
     <t>"I feel most comfortable when everything around me is calm and harmonious."</t>
@@ -734,8 +734,8 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
     </row>
     <row r="2" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -774,10 +774,10 @@
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="4" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="5" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="6" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="7" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
@@ -833,10 +833,10 @@
     </row>
     <row r="8" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="9" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -857,10 +857,10 @@
     </row>
     <row r="10" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -869,10 +869,10 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5">
@@ -889,7 +889,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6">
         <v>3</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6">
         <v>3</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="6">
@@ -964,10 +964,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -975,10 +975,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7">
         <v>4</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C22" s="7">
         <v>4</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C23" s="7">
         <v>4</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>6</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="7">
@@ -1039,10 +1039,10 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C27" s="8">
         <v>5</v>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C28" s="8">
         <v>5</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C29" s="8">
         <v>5</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="8">
@@ -1081,10 +1081,10 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C32" s="10">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C33" s="10">
         <v>6</v>
@@ -1114,10 +1114,10 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C34" s="10">
         <v>6</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C35" s="10">
         <v>6</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C36" s="10">
         <v>6</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="10">
@@ -1156,10 +1156,10 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C38" s="11">
         <v>7</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" s="11">
         <v>7</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" s="11">
         <v>7</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="11">
         <v>7</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="11">
         <v>7</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="11">
@@ -1220,10 +1220,10 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="12">
         <v>8</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" s="12">
         <v>8</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C46" s="12">
         <v>8</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C47" s="12">
         <v>8</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="12">
@@ -1273,10 +1273,10 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C49" s="12">
         <v>8</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C50" s="13">
         <v>9</v>
@@ -1348,5 +1348,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/quiz-questions.xlsx
+++ b/quiz-questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\enneagram-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9BFA52-1C36-418F-A55D-2FCB2374D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48DF671-9AC7-4D3E-AFE0-F64038D5DF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,144 +47,142 @@
     <t>Targets Type 1's core motivation for integrity and fear of being corrupt or wrong. This question helps highlight the inner critic and the striving for moral high ground.</t>
   </si>
   <si>
+    <t>"I find it difficult to relax when I see something that needs improvement or fixing."</t>
+  </si>
+  <si>
+    <t>"I feel strongly that fairness and justice should be upheld as a matter of principle."</t>
+  </si>
+  <si>
+    <t>"I often feel a moral obligation to meet higher standards than I expect from others."</t>
+  </si>
+  <si>
+    <t>Further captures Type 1's commitment to ethics and their discomfort with perceived injustices or unfairness.</t>
+  </si>
+  <si>
+    <t>Reflects Type 1’s perfectionism and internal self-criticism. This explores their inner drive for improvement.</t>
+  </si>
+  <si>
+    <t>"I feel unsettled when things don’t meet my standards of order and correctness."</t>
+  </si>
+  <si>
+    <t>Highlights Type 1's focus on structure and aversion to chaos.</t>
+  </si>
+  <si>
+    <t>"I believe that rules, structure, and doing what’s right are essential for creating a better world."</t>
+  </si>
+  <si>
+    <t>Addresses Type 1’s adherence to principles and their tendency to see the world in terms of right and wrong.</t>
+  </si>
+  <si>
+    <t>"I feel frustrated when things or people don’t live up to the standards I hold."</t>
+  </si>
+  <si>
+    <t>"I often neglect my own needs because I feel fulfilled when I’m making others feel loved and supported."</t>
+  </si>
+  <si>
+    <t>Explores Type 2’s core motivation to be loved and valued through helpfulness and connection. This emphasizes their tendency to derive self-worth from being indispensable.</t>
+  </si>
+  <si>
+    <t>"I feel happiest when I’m making someone else’s life easier or better, and it's appreciated."</t>
+  </si>
+  <si>
+    <t>Reflects Type 2’s joy in serving others and their need for connection and appreciation.</t>
+  </si>
+  <si>
+    <t>"I sometimes feel hurt if my efforts to help others are not acknowledged."</t>
+  </si>
+  <si>
+    <t>Captures Type 2’s vulnerability to feeling unappreciated and their need for validation.</t>
+  </si>
+  <si>
+    <t>"I often anticipate others’ needs before they even ask for help."</t>
+  </si>
+  <si>
+    <t>Highlights Type 2’s focus on intuitively understanding and meeting the needs of others.</t>
+  </si>
+  <si>
+    <t>"I instinctively notice when someone needs support and feel drawn to help them."</t>
+  </si>
+  <si>
+    <t>"I feel a strong emotional need to be needed and valued by the people I care about."</t>
+  </si>
+  <si>
     <t>Addresses Type 2’s motivation to feel indispensable and appreciated.</t>
   </si>
   <si>
+    <t>"I feel driven to succeed and fear being seen as a failure or incapable."</t>
+  </si>
+  <si>
     <t>Highlights Type 3's drive for achievement and fear of being seen as unworthy. It touches on the pressure they feel to excel and prove their value.</t>
   </si>
   <si>
+    <t>"I often adjust my personality or behavior to match the expectations of others."</t>
+  </si>
+  <si>
+    <t>Reflects Type 3’s adaptability and their focus on achieving recognition through alignment with others’ values.</t>
+  </si>
+  <si>
+    <t>"I naturally detect what others value and scan for opportunities to shine and advance."</t>
+  </si>
+  <si>
+    <t>Addresses Type 3’s drive to excel and their fear of being seen as average or unremarkable.</t>
+  </si>
+  <si>
+    <t>"I feel restless and unsatisfied if I’m not actively working toward something significant, or an ambitious goal."</t>
+  </si>
+  <si>
+    <t>Highlights Type 3’s focus on image and external validation.</t>
+  </si>
+  <si>
+    <t>"I measure my worth by how much I’m able to achieve."</t>
+  </si>
+  <si>
+    <t>Captures Type 3’s core motivation and their focus on results and accomplishment.</t>
+  </si>
+  <si>
+    <t>"I feel a strong sense of purpose when I’m being recognized for what I accomplish."</t>
+  </si>
+  <si>
+    <t>"I feel most alive when I’m expressing something that reflects my unique identity and emotional depth."</t>
+  </si>
+  <si>
+    <t>Probes Type 4’s introspection and longing to find a unique identity. This helps identify their depth of emotion and their search for significance.</t>
+  </si>
+  <si>
+    <t>"I sometimes feel like I don’t fully belong, as if there’s something missing or different about me."</t>
+  </si>
+  <si>
+    <t>Reflects Type 4’s tendency to feel different and their yearning for a place where they are truly understood.</t>
+  </si>
+  <si>
+    <t>"I find beauty and meaning in experiences that others might overlook as ordinary."</t>
+  </si>
+  <si>
+    <t>Highlights Type 4’s focus on emotional richness and their ability to see value in subtlety and creativity.</t>
+  </si>
+  <si>
+    <t>"I often feel a longing for something that is difficult to define."</t>
+  </si>
+  <si>
+    <t>Captures Type 4’s core emotional focus on yearning and searching for meaning.</t>
+  </si>
+  <si>
+    <t>"I dislike the idea of blending in with the crowd and look for ways to express my individuality."</t>
+  </si>
+  <si>
     <t>Addresses Type 4’s desire to stand out and their resistance to being perceived as ordinary.</t>
   </si>
   <si>
+    <t>"I’m drawn to exploring and understanding the deeper emotional truths behind my experiences."</t>
+  </si>
+  <si>
     <t>"I feel the need to gather as much knowledge as I can before making decisions."</t>
   </si>
   <si>
     <t>Reflects Type 5’s need for understanding and fear of being helpless or incapable. This explores their analytical nature and self-reliance.</t>
   </si>
   <si>
-    <t>"I find it difficult to relax when I see something that needs improvement or fixing."</t>
-  </si>
-  <si>
-    <t>"I feel strongly that fairness and justice should be upheld as a matter of principle."</t>
-  </si>
-  <si>
-    <t>Further captures Type 1's commitment to ethics and their discomfort with perceived injustices or unfairness.</t>
-  </si>
-  <si>
-    <t>"I often feel a moral obligation to meet higher standards than I expect from others."</t>
-  </si>
-  <si>
-    <t>Reflects Type 1’s perfectionism and internal self-criticism. This explores their inner drive for improvement.</t>
-  </si>
-  <si>
-    <t>"I feel unsettled when things don’t meet my standards of order and correctness."</t>
-  </si>
-  <si>
-    <t>Highlights Type 1's focus on structure and aversion to chaos.</t>
-  </si>
-  <si>
-    <t>"I believe that rules, structure, and doing what’s right are essential for creating a better world."</t>
-  </si>
-  <si>
-    <t>Addresses Type 1’s adherence to principles and their tendency to see the world in terms of right and wrong.</t>
-  </si>
-  <si>
-    <t>"I feel frustrated when things or people don’t live up to the standards I hold."</t>
-  </si>
-  <si>
-    <t>"I often neglect my own needs because I feel fulfilled when I’m making others feel loved and supported."</t>
-  </si>
-  <si>
-    <t>Explores Type 2’s core motivation to be loved and valued through helpfulness and connection. This emphasizes their tendency to derive self-worth from being indispensable.</t>
-  </si>
-  <si>
-    <t>"I feel happiest when I’m making someone else’s life easier or better, and it's appreciated."</t>
-  </si>
-  <si>
-    <t>Reflects Type 2’s joy in serving others and their need for connection and appreciation.</t>
-  </si>
-  <si>
-    <t>"I sometimes feel hurt if my efforts to help others are not acknowledged."</t>
-  </si>
-  <si>
-    <t>Captures Type 2’s vulnerability to feeling unappreciated and their need for validation.</t>
-  </si>
-  <si>
-    <t>"I often anticipate others’ needs before they even ask for help."</t>
-  </si>
-  <si>
-    <t>Highlights Type 2’s focus on intuitively understanding and meeting the needs of others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I instinctively notice when someone needs support and feel drawn to help them."
-</t>
-  </si>
-  <si>
-    <t>"I feel a strong emotional need to be needed and valued by the people I care about."</t>
-  </si>
-  <si>
-    <t>"I feel driven to succeed and fear being seen as a failure or incapable."</t>
-  </si>
-  <si>
-    <t>"I often adjust my personality or behavior to match the expectations of others."</t>
-  </si>
-  <si>
-    <t>Reflects Type 3’s adaptability and their focus on achieving recognition through alignment with others’ values.</t>
-  </si>
-  <si>
-    <t>"I naturally detect what others value and scan for opportunities to shine and advance."</t>
-  </si>
-  <si>
-    <t>Addresses Type 3’s drive to excel and their fear of being seen as average or unremarkable.</t>
-  </si>
-  <si>
-    <t>"I feel restless and unsatisfied if I’m not actively working toward something significant, or an ambitious goal."</t>
-  </si>
-  <si>
-    <t>Highlights Type 3’s focus on image and external validation.</t>
-  </si>
-  <si>
-    <t>"I measure my worth by how much I’m able to achieve."</t>
-  </si>
-  <si>
-    <t>Captures Type 3’s core motivation and their focus on results and accomplishment.</t>
-  </si>
-  <si>
-    <t>"I feel a strong sense of purpose when I’m being recognized for what I accomplish."</t>
-  </si>
-  <si>
-    <t>"I feel most alive when I’m expressing something that reflects my unique identity and emotional depth."</t>
-  </si>
-  <si>
-    <t>Probes Type 4’s introspection and longing to find a unique identity. This helps identify their depth of emotion and their search for significance.</t>
-  </si>
-  <si>
-    <t>"I sometimes feel like I don’t fully belong, as if there’s something missing or different about me."</t>
-  </si>
-  <si>
-    <t>Reflects Type 4’s tendency to feel different and their yearning for a place where they are truly understood.</t>
-  </si>
-  <si>
-    <t>"I find beauty and meaning in experiences that others might overlook as ordinary."</t>
-  </si>
-  <si>
-    <t>Highlights Type 4’s focus on emotional richness and their ability to see value in subtlety and creativity.</t>
-  </si>
-  <si>
-    <t>"I often feel a longing for something that is difficult to define."</t>
-  </si>
-  <si>
-    <t>Captures Type 4’s core emotional focus on yearning and searching for meaning.</t>
-  </si>
-  <si>
-    <t>"I dislike the idea of blending in with the crowd and look for ways to express my individuality."</t>
-  </si>
-  <si>
-    <t>"I’m drawn to exploring and understanding the deeper emotional truths behind my experiences."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I feel most at ease when I have the space to handle things on my own."
-</t>
+    <t>"I feel most at ease when I have the space to handle things on my own."</t>
   </si>
   <si>
     <t>Highlights Type 5’s focus on autonomy and their discomfort with excessive reliance on external support.</t>
@@ -340,8 +338,7 @@
     <t>Captures Type 9’s desire for unity and their aversion to discord.</t>
   </si>
   <si>
-    <t xml:space="preserve">"I feel most at ease when everyone around me is getting along and there’s no tension."
-</t>
+    <t>"I feel most at ease when everyone around me is getting along and there’s no tension."</t>
   </si>
 </sst>
 </file>
@@ -731,20 +728,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="68.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="121.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,9 +757,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -772,160 +769,151 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
@@ -933,10 +921,10 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
@@ -944,10 +932,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="6">
         <v>3</v>
@@ -955,7 +943,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="6">
@@ -964,10 +952,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -975,10 +963,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7">
         <v>4</v>
@@ -986,10 +974,10 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" s="7">
         <v>4</v>
@@ -997,10 +985,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="7">
         <v>4</v>
@@ -1008,10 +996,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -1019,7 +1007,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="7">
@@ -1028,10 +1016,10 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C26" s="8">
         <v>5</v>

--- a/quiz-questions.xlsx
+++ b/quiz-questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\enneagram-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48DF671-9AC7-4D3E-AFE0-F64038D5DF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6C59BF-C40A-49B6-9A47-41FCC72A0EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Question</t>
   </si>
@@ -53,9 +53,6 @@
     <t>"I feel strongly that fairness and justice should be upheld as a matter of principle."</t>
   </si>
   <si>
-    <t>"I often feel a moral obligation to meet higher standards than I expect from others."</t>
-  </si>
-  <si>
     <t>Further captures Type 1's commitment to ethics and their discomfort with perceived injustices or unfairness.</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Highlights Type 1's focus on structure and aversion to chaos.</t>
   </si>
   <si>
-    <t>"I believe that rules, structure, and doing what’s right are essential for creating a better world."</t>
-  </si>
-  <si>
     <t>Addresses Type 1’s adherence to principles and their tendency to see the world in terms of right and wrong.</t>
   </si>
   <si>
@@ -83,15 +77,9 @@
     <t>Explores Type 2’s core motivation to be loved and valued through helpfulness and connection. This emphasizes their tendency to derive self-worth from being indispensable.</t>
   </si>
   <si>
-    <t>"I feel happiest when I’m making someone else’s life easier or better, and it's appreciated."</t>
-  </si>
-  <si>
     <t>Reflects Type 2’s joy in serving others and their need for connection and appreciation.</t>
   </si>
   <si>
-    <t>"I sometimes feel hurt if my efforts to help others are not acknowledged."</t>
-  </si>
-  <si>
     <t>Captures Type 2’s vulnerability to feeling unappreciated and their need for validation.</t>
   </si>
   <si>
@@ -104,15 +92,9 @@
     <t>"I instinctively notice when someone needs support and feel drawn to help them."</t>
   </si>
   <si>
-    <t>"I feel a strong emotional need to be needed and valued by the people I care about."</t>
-  </si>
-  <si>
     <t>Addresses Type 2’s motivation to feel indispensable and appreciated.</t>
   </si>
   <si>
-    <t>"I feel driven to succeed and fear being seen as a failure or incapable."</t>
-  </si>
-  <si>
     <t>Highlights Type 3's drive for achievement and fear of being seen as unworthy. It touches on the pressure they feel to excel and prove their value.</t>
   </si>
   <si>
@@ -134,9 +116,6 @@
     <t>Highlights Type 3’s focus on image and external validation.</t>
   </si>
   <si>
-    <t>"I measure my worth by how much I’m able to achieve."</t>
-  </si>
-  <si>
     <t>Captures Type 3’s core motivation and their focus on results and accomplishment.</t>
   </si>
   <si>
@@ -149,9 +128,6 @@
     <t>Probes Type 4’s introspection and longing to find a unique identity. This helps identify their depth of emotion and their search for significance.</t>
   </si>
   <si>
-    <t>"I sometimes feel like I don’t fully belong, as if there’s something missing or different about me."</t>
-  </si>
-  <si>
     <t>Reflects Type 4’s tendency to feel different and their yearning for a place where they are truly understood.</t>
   </si>
   <si>
@@ -161,9 +137,6 @@
     <t>Highlights Type 4’s focus on emotional richness and their ability to see value in subtlety and creativity.</t>
   </si>
   <si>
-    <t>"I often feel a longing for something that is difficult to define."</t>
-  </si>
-  <si>
     <t>Captures Type 4’s core emotional focus on yearning and searching for meaning.</t>
   </si>
   <si>
@@ -173,12 +146,6 @@
     <t>Addresses Type 4’s desire to stand out and their resistance to being perceived as ordinary.</t>
   </si>
   <si>
-    <t>"I’m drawn to exploring and understanding the deeper emotional truths behind my experiences."</t>
-  </si>
-  <si>
-    <t>"I feel the need to gather as much knowledge as I can before making decisions."</t>
-  </si>
-  <si>
     <t>Reflects Type 5’s need for understanding and fear of being helpless or incapable. This explores their analytical nature and self-reliance.</t>
   </si>
   <si>
@@ -194,36 +161,21 @@
     <t>Captures Type 5’s preference for detachment and their aversion to intense social engagement.</t>
   </si>
   <si>
-    <t>"I often feel drained when others make too many emotional or social demands on me."</t>
-  </si>
-  <si>
     <t>Addresses Type 5’s need for boundaries and their tendency to conserve energy.</t>
   </si>
   <si>
-    <t>"I sometimes worry about running out of energy or resources, so I carefully manage what I give to others."</t>
-  </si>
-  <si>
     <t>"I prefer relationships with clear boundaries so I can maintain my personal space and autonomy."</t>
   </si>
   <si>
     <t>Reflects Type 5’s focus on maintaining control over their time and energy.</t>
   </si>
   <si>
-    <t>"I am sensitive to any signs that someone may be unreliable, disloyal or inconsistent."</t>
-  </si>
-  <si>
     <t>Identifies Type 6’s desire for security and fear of instability or disconnection. It uncovers their preference for teamwork and loyalty.</t>
   </si>
   <si>
-    <t>"I often seek reassurance from others to help me feel more confident in my decisions."</t>
-  </si>
-  <si>
     <t>Captures Type 6’s tendency toward self-doubt and their need for external validation.</t>
   </si>
   <si>
-    <t>"I often look for signs that people or systems are trustworthy before I fully commit."</t>
-  </si>
-  <si>
     <t>Highlights Type 6’s focus on trust and their reliance on reliable alliances.</t>
   </si>
   <si>
@@ -242,9 +194,6 @@
     <t>"I feel most at ease when I can rely on others to be consistent and dependable."</t>
   </si>
   <si>
-    <t>"I crave new experiences and feel stifled by routine."</t>
-  </si>
-  <si>
     <t>Addresses Type 7’s pursuit of joy and avoidance of pain or limitation. It reveals their tendency toward optimism and variety-seeking.</t>
   </si>
   <si>
@@ -266,9 +215,6 @@
     <t>Captures Type 7’s enthusiasm for adventure and their resistance to being confined.</t>
   </si>
   <si>
-    <t>"I value flexibility and prefer to do things my way."</t>
-  </si>
-  <si>
     <t>Addresses Type 7’s fear of being trapped and their need for freedom.</t>
   </si>
   <si>
@@ -281,15 +227,9 @@
     <t>Highlights Type 8’s need for control and fear of being betrayed or harmed. This question identifies their protective instincts and assertiveness.</t>
   </si>
   <si>
-    <t>"I naturally detect weakness and strength in situations and people"</t>
-  </si>
-  <si>
     <t>Reflects Type 8’s protective nature and their focus on justice.</t>
   </si>
   <si>
-    <t>"I often take charge in situations where I feel things are out of control, to protect myself and others."</t>
-  </si>
-  <si>
     <t>Captures Type 8’s leadership tendencies and their need to assert authority.</t>
   </si>
   <si>
@@ -299,9 +239,6 @@
     <t>Highlights Type 8’s resistance to showing weakness and their emphasis on strength.</t>
   </si>
   <si>
-    <t>"I am the first to confront people or situations I believe are unfair or unjust."</t>
-  </si>
-  <si>
     <t>"I respect people who are strong and direct, even if we don’t always agree."</t>
   </si>
   <si>
@@ -320,9 +257,6 @@
     <t>Reflects Type 9’s focus on maintaining stability and their discomfort with conflict.</t>
   </si>
   <si>
-    <t>"I often lose track of my own needs because I prioritize keeping peace and avoiding conflict."</t>
-  </si>
-  <si>
     <t>Highlights Type 9’s tendency to neglect self-interest in favor of external harmony.</t>
   </si>
   <si>
@@ -338,7 +272,100 @@
     <t>Captures Type 9’s desire for unity and their aversion to discord.</t>
   </si>
   <si>
-    <t>"I feel most at ease when everyone around me is getting along and there’s no tension."</t>
+    <t>"I tend to feel a moral obligation to meet higher standards than I expect from others."</t>
+  </si>
+  <si>
+    <t>"I feel an inner pressure to improve things and hold myself to a higher standard than I expect from others, even when no one is watching."</t>
+  </si>
+  <si>
+    <t>"I constantly notice flaws, inefficiencies, and ways things could be improved, and I feel a responsibility to fix them. It frustrates me when others don't seem to care about doing things the right way."</t>
+  </si>
+  <si>
+    <t>"I instinctively notice when someone needs support and feel drawn to help them, sometimes to the point of neglecting my own needs."</t>
+  </si>
+  <si>
+    <t>"I tend to feel hurt if my efforts to help others are not acknowledged."</t>
+  </si>
+  <si>
+    <t>"I feel a strong emotional need to be valued by the people I care about."</t>
+  </si>
+  <si>
+    <t>"I feel driven to succeed and fear being seen as incapable, unremarkable, or a failure."</t>
+  </si>
+  <si>
+    <t>"I measure my worth by how much I’m able to achieve. If I’m not achieving, I feel like I’m falling behind."</t>
+  </si>
+  <si>
+    <t>"I value efficiency and tangible results, and I don’t like wasting time on things that don’t move me forward. If something can be done better, faster, or more strategically, I’ll optimize it."</t>
+  </si>
+  <si>
+    <t>"I tend to feel like I don’t fully belong, as if there’s something missing or different about me."</t>
+  </si>
+  <si>
+    <t>"I experience emotions more intensely than most people, and I find deep meaning in beauty, art, and self-expression. Ordinary or surface-level things don’t fulfill me—I crave depth and authenticity."</t>
+  </si>
+  <si>
+    <t>"I feel a stronger need to gather as much knowledge as possible before making decisions than most people I know."</t>
+  </si>
+  <si>
+    <t>"I tend to feel drained when others make too many emotional or social demands on me."</t>
+  </si>
+  <si>
+    <t>"I worry about running out of energy or resources, so I carefully manage what I give to others."</t>
+  </si>
+  <si>
+    <t>""I need time alone to gather knowledge and process my thoughts before I feel ready to engage with the world."</t>
+  </si>
+  <si>
+    <t>"I prefer environments where I know who I can trust, and uncertainty or unclear expectations make me uneasy."</t>
+  </si>
+  <si>
+    <t>"I tend to seek reassurance from others to help me feel more confident in my decisions."</t>
+  </si>
+  <si>
+    <t>"I tend to look for signs that people or systems are trustworthy before I fully commit."</t>
+  </si>
+  <si>
+    <t>"I constantly scan for risks, inconsistencies, or things that could go wrong because I want to be prepared for anything. I don’t like feeling blindsided, so I think through every possibility in advance."</t>
+  </si>
+  <si>
+    <t>"I crave new experiences and feel stifled by the same routine. I need variety and stimulation to stay engaged."</t>
+  </si>
+  <si>
+    <t>"I value flexibility and prefer to do things my way. I don’t want to feel trapped or limited by someone else’s plan."</t>
+  </si>
+  <si>
+    <t>"I don’t just seek happiness—I crave a feeling of aliveness, a sense that I’m making the most of every moment."</t>
+  </si>
+  <si>
+    <t>"I naturally assess who is strong, who is weak, and who is in control in any situation."</t>
+  </si>
+  <si>
+    <t>"I tend to take charge in situations where I feel things are out of control, to protect myself and others."</t>
+  </si>
+  <si>
+    <t>"I don’t hesitate to confront and call out unfairness directly, even if it makes others uncomfortable."</t>
+  </si>
+  <si>
+    <t>"I take charge naturally because I trust my instincts and don’t see the point in waiting for permission to act. If something needs to get done, I make sure it happens."</t>
+  </si>
+  <si>
+    <t>"I tend to lose track of my own needs because I prioritize keeping peace and avoiding conflict."</t>
+  </si>
+  <si>
+    <t>"I prefer a calm, conflict-free environment over one filled with excitement, intensity, or drama."</t>
+  </si>
+  <si>
+    <t>"I often merge with the people around me, easily seeing their perspectives and going along with what they want."</t>
+  </si>
+  <si>
+    <t>"I often feel a longing for something that is difficult to define, a sense that something important is missing."</t>
+  </si>
+  <si>
+    <t>"I seek the deeper emotional truth in every experience because raw, unfiltered feeling is what makes life meaningful to me."</t>
+  </si>
+  <si>
+    <t>"I intuitively sense what others need and feel deeply fulfilled when I can help, but I wish others would notice what I need too. It’s hard for me to ask for help directly."</t>
   </si>
 </sst>
 </file>
@@ -471,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,6 +537,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,11 +756,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C55"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -774,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -782,10 +810,10 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -793,10 +821,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -804,10 +832,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -815,7 +843,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
@@ -824,21 +852,19 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -846,10 +872,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -857,10 +883,10 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
@@ -868,52 +894,50 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3</v>
+      <c r="A15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
@@ -921,10 +945,10 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
@@ -932,10 +956,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6">
         <v>3</v>
@@ -943,52 +967,50 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4</v>
+        <v>87</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C23" s="7">
         <v>4</v>
@@ -996,10 +1018,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -1007,330 +1029,417 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>47</v>
+      <c r="A26" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="8">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="8">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="8">
-        <v>5</v>
+      <c r="A28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="8">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C30" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>58</v>
+      <c r="A32" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="10">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="C32" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="10">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="C33" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="10">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="10">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="C35" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="10">
-        <v>6</v>
+        <v>93</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="3"/>
+      <c r="A37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C37" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="11">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C38" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="11">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="C39" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="11">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="C40" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="11">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="C41" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="11">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="11">
-        <v>7</v>
+      <c r="C43" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="12">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="C44" s="11">
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="12">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="C45" s="11">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="12">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="C46" s="11">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="12">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="C47" s="11">
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="12">
-        <v>8</v>
+        <v>99</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="11">
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="12">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="11">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="13">
-        <v>9</v>
+        <v>100</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="11">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="13">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="C51" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="13">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="C52" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="13">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="C53" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="13">
-        <v>9</v>
+        <v>67</v>
+      </c>
+      <c r="C54" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="13">
+      <c r="C55" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="13">
         <v>9</v>
       </c>
     </row>

--- a/quiz-questions.xlsx
+++ b/quiz-questions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Question</t>
   </si>
@@ -71,6 +71,156 @@
   </si>
   <si>
     <t>Highlights Type 3's drive for achievement and fear of being seen as unworthy. It touches on the pressure they feel to excel and prove their value.</t>
+  </si>
+  <si>
+    <t>"I often adjust my personality or behavior to match the expectations of others."</t>
+  </si>
+  <si>
+    <t>Reflects Type 3’s adaptability and their focus on achieving recognition through alignment with others’ values.</t>
+  </si>
+  <si>
+    <t>"I feel restless and unsatisfied if I’m not actively working toward something significant, or an ambitious goal."</t>
+  </si>
+  <si>
+    <t>Highlights Type 3’s focus on image and external validation.</t>
+  </si>
+  <si>
+    <t>"I measure my worth by how much I’m able to achieve. If I’m not achieving, I feel like I’m falling behind."</t>
+  </si>
+  <si>
+    <t>Captures Type 3’s core motivation and their focus on results and accomplishment.</t>
+  </si>
+  <si>
+    <t>"I find beauty and meaning in experiences that others might overlook as ordinary."</t>
+  </si>
+  <si>
+    <t>Highlights Type 4’s focus on emotional richness and their ability to see value in subtlety and creativity.</t>
+  </si>
+  <si>
+    <t>"I often feel a longing for something that is difficult to define, a sense that something important is missing."</t>
+  </si>
+  <si>
+    <t>Captures Type 4’s core emotional focus on yearning and searching for meaning.</t>
+  </si>
+  <si>
+    <t>"I dislike the idea of blending in with the crowd and look for ways to express my individuality."</t>
+  </si>
+  <si>
+    <t>Addresses Type 4’s desire to stand out and their resistance to being perceived as ordinary.</t>
+  </si>
+  <si>
+    <t>"I seek the deeper emotional truth in every experience because raw, unfiltered feeling is what makes life meaningful to me."</t>
+  </si>
+  <si>
+    <t>"I feel a stronger need to gather as much knowledge as possible before making decisions than most people I know."</t>
+  </si>
+  <si>
+    <t>Reflects Type 5’s need for understanding and fear of being helpless or incapable. This explores their analytical nature and self-reliance.</t>
+  </si>
+  <si>
+    <t>"I feel more comfortable observing from the sidelines than being the center of attention."</t>
+  </si>
+  <si>
+    <t>Captures Type 5’s preference for detachment and their aversion to intense social engagement.</t>
+  </si>
+  <si>
+    <t>"I worry about running out of energy or resources, so I carefully manage what I give to others."</t>
+  </si>
+  <si>
+    <t>"I prefer relationships with clear boundaries so I can maintain my personal space and autonomy."</t>
+  </si>
+  <si>
+    <t>Reflects Type 5’s focus on maintaining control over their time and energy.</t>
+  </si>
+  <si>
+    <t>"I tend to seek reassurance from others to help me feel more confident in my decisions."</t>
+  </si>
+  <si>
+    <t>Identifies Type 6’s desire for security and fear of instability or disconnection. It uncovers their preference for teamwork and loyalty.</t>
+  </si>
+  <si>
+    <t>"I tend to look for signs that people or systems are trustworthy before I fully commit."</t>
+  </si>
+  <si>
+    <t>Highlights Type 6’s focus on trust and their reliance on reliable alliances.</t>
+  </si>
+  <si>
+    <t>"I scan for risks and think through every possibility in advance - I want to be prepared for anything."</t>
+  </si>
+  <si>
+    <t>"I frequently worry about potential risks and plan for worst-case scenarios."</t>
+  </si>
+  <si>
+    <t>Reflects Type 6’s focus on security and their cautious approach to the unknown.</t>
+  </si>
+  <si>
+    <t>"I crave new experiences and feel stifled by the same routine. I need variety and stimulation to stay engaged."</t>
+  </si>
+  <si>
+    <t>Addresses Type 7’s pursuit of joy and avoidance of pain or limitation. It reveals their tendency toward optimism and variety-seeking.</t>
+  </si>
+  <si>
+    <t>"I feel energized by imagining exciting new ideas and experiences that I can pursue in the future."</t>
+  </si>
+  <si>
+    <t>Reflects Type 7’s creative and forward-thinking nature.</t>
+  </si>
+  <si>
+    <t>"I always look for opportunities to make life more fun, enjoyable, and full of variety."</t>
+  </si>
+  <si>
+    <t>Highlights Type 7’s coping mechanisms for avoiding pain and discomfort.</t>
+  </si>
+  <si>
+    <t>"I value flexibility and prefer to do things my way. I don’t want to feel trapped or limited by someone else’s plan."</t>
+  </si>
+  <si>
+    <t>Addresses Type 7’s fear of being trapped and their need for freedom.</t>
+  </si>
+  <si>
+    <t>"I pride myself on being strong and independent, and I rarely let others see when I’m feeling vulnerable."</t>
+  </si>
+  <si>
+    <t>Highlights Type 8’s need for control and fear of being betrayed or harmed. This question identifies their protective instincts and assertiveness.</t>
+  </si>
+  <si>
+    <t>"I naturally assess who is strong, who is weak, and who is in control in any situation."</t>
+  </si>
+  <si>
+    <t>Reflects Type 8’s protective nature and their focus on justice.</t>
+  </si>
+  <si>
+    <t>"I tend to take charge in situations where I feel things are out of control, to protect myself and others."</t>
+  </si>
+  <si>
+    <t>Captures Type 8’s leadership tendencies and their need to assert authority.</t>
+  </si>
+  <si>
+    <t>"I respect people who are strong and direct, even if we don’t always agree."</t>
+  </si>
+  <si>
+    <t>Addresses Type 8’s focus on autonomy and their aversion to being controlled.</t>
+  </si>
+  <si>
+    <t>"I tend to agree with others to avoid arguments, even if I feel differently."</t>
+  </si>
+  <si>
+    <t>Captures Type 9’s tendency to avoid conflict and prioritize peace over personal expression. This points to their preference for harmony and aversion to confrontation.</t>
+  </si>
+  <si>
+    <t>"I tend to lose track of my own needs because I prioritize keeping peace and avoiding conflict."</t>
+  </si>
+  <si>
+    <t>Highlights Type 9’s tendency to neglect self-interest in favor of external harmony.</t>
+  </si>
+  <si>
+    <t>"I sometimes go along with others’ preferences to avoid making waves or drawing attention to myself."</t>
+  </si>
+  <si>
+    <t>Addresses Type 9’s reluctance to engage in conflict and their preference for going along with the flow.</t>
+  </si>
+  <si>
+    <t>"I prefer a calm, conflict-free environment over one filled with excitement, intensity, or drama."</t>
   </si>
 </sst>
 </file>
@@ -98,7 +248,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +271,42 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFABC878"/>
         <bgColor rgb="FFABC878"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5CF6F"/>
+        <bgColor rgb="FFD5CF6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD666"/>
+        <bgColor rgb="FFFFD666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3D989"/>
+        <bgColor rgb="FFF3D989"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7DCAC"/>
+        <bgColor rgb="FFE7DCAC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDFCF"/>
+        <bgColor rgb="FFDBDFCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -130,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -146,14 +332,29 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,8 +609,8 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
-        <v>2.0</v>
+      <c r="C4" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -419,8 +620,8 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
-        <v>3.0</v>
+      <c r="C5" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -430,8 +631,8 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
-        <v>4.0</v>
+      <c r="C6" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -441,8 +642,8 @@
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6">
-        <v>5.0</v>
+      <c r="C7" s="5">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -452,8 +653,8 @@
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6">
-        <v>6.0</v>
+      <c r="C8" s="5">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -461,8 +662,8 @@
         <v>15</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="6">
-        <v>7.0</v>
+      <c r="C9" s="5">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -472,8 +673,8 @@
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6">
-        <v>8.0</v>
+      <c r="C10" s="5">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -483,7 +684,296 @@
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="9">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="9">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="9">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="9">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="10">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="10">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="10">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="10">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="11">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="11">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="11">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="11">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="12">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="12">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="12">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="12">
         <v>9.0</v>
       </c>
     </row>
